--- a/spliced/walkingToRunning/2023-03-27_19-47-59/accelerometer_selected.xlsx
+++ b/spliced/walkingToRunning/2023-03-27_19-47-59/accelerometer_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,222 +452,332 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.8380553126335144</v>
+        <v>-1.568910002708435</v>
       </c>
       <c r="B2" t="n">
-        <v>-9.445679664611816</v>
+        <v>-8.732925415039062</v>
       </c>
       <c r="C2" t="n">
-        <v>7.571309566497803</v>
+        <v>11.35853481292725</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-4.43754243850708</v>
+        <v>0.8380553126335144</v>
       </c>
       <c r="B3" t="n">
-        <v>-12.15506172180176</v>
+        <v>-9.445679664611816</v>
       </c>
       <c r="C3" t="n">
-        <v>10.53030300140381</v>
+        <v>7.571309566497803</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-3.872812271118164</v>
+        <v>-4.43754243850708</v>
       </c>
       <c r="B4" t="n">
-        <v>-15.58516311645508</v>
+        <v>-12.15506172180176</v>
       </c>
       <c r="C4" t="n">
-        <v>9.149867057800291</v>
+        <v>10.53030300140381</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.5598046779632568</v>
+        <v>-3.872812271118164</v>
       </c>
       <c r="B5" t="n">
-        <v>-19.21427345275879</v>
+        <v>-15.58516311645508</v>
       </c>
       <c r="C5" t="n">
-        <v>13.29136562347412</v>
+        <v>9.149867057800291</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2.957458972930908</v>
+        <v>0.5598046779632568</v>
       </c>
       <c r="B6" t="n">
-        <v>-15.63736534118652</v>
+        <v>-19.21427345275879</v>
       </c>
       <c r="C6" t="n">
-        <v>18.14484405517578</v>
+        <v>13.29136562347412</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-4.411556243896484</v>
+        <v>2.957458972930908</v>
       </c>
       <c r="B7" t="n">
-        <v>-15.87227630615234</v>
+        <v>-15.63736534118652</v>
       </c>
       <c r="C7" t="n">
-        <v>40.7801628112793</v>
+        <v>18.14484405517578</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.2294394373893737</v>
+        <v>-4.411556243896484</v>
       </c>
       <c r="B8" t="n">
-        <v>-9.447723388671877</v>
+        <v>-15.87227630615234</v>
       </c>
       <c r="C8" t="n">
-        <v>14.12417602539062</v>
+        <v>40.7801628112793</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>3.351289749145508</v>
+        <v>0.2294394373893737</v>
       </c>
       <c r="B9" t="n">
-        <v>-3.712981224060059</v>
+        <v>-9.447723388671877</v>
       </c>
       <c r="C9" t="n">
-        <v>-18.65704727172852</v>
+        <v>14.12417602539062</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-22.51167106628418</v>
+        <v>3.351289749145508</v>
       </c>
       <c r="B10" t="n">
-        <v>-17.20490455627441</v>
+        <v>-3.712981224060059</v>
       </c>
       <c r="C10" t="n">
-        <v>5.639435768127441</v>
+        <v>-18.65704727172852</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>14.83362007141113</v>
+        <v>-22.51167106628418</v>
       </c>
       <c r="B11" t="n">
-        <v>-49.96879959106445</v>
+        <v>-17.20490455627441</v>
       </c>
       <c r="C11" t="n">
-        <v>43.1571044921875</v>
+        <v>5.639435768127441</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-8.106056213378906</v>
+        <v>14.83362007141113</v>
       </c>
       <c r="B12" t="n">
-        <v>-6.839672088623047</v>
+        <v>-49.96879959106445</v>
       </c>
       <c r="C12" t="n">
-        <v>18.68710708618164</v>
+        <v>43.1571044921875</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>7.08396577835083</v>
+        <v>-8.106056213378906</v>
       </c>
       <c r="B13" t="n">
-        <v>-45.43311309814453</v>
+        <v>-6.839672088623047</v>
       </c>
       <c r="C13" t="n">
-        <v>57.45177841186523</v>
+        <v>18.68710708618164</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-54.06974029541016</v>
+        <v>7.08396577835083</v>
       </c>
       <c r="B14" t="n">
-        <v>-7.343055725097656</v>
+        <v>-45.43311309814453</v>
       </c>
       <c r="C14" t="n">
-        <v>-12.35771465301514</v>
+        <v>57.45177841186523</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-4.483136177062988</v>
+        <v>-54.06974029541016</v>
       </c>
       <c r="B15" t="n">
-        <v>2.244215488433838</v>
+        <v>-7.343055725097656</v>
       </c>
       <c r="C15" t="n">
-        <v>2.329180240631104</v>
+        <v>-12.35771465301514</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-11.29128932952881</v>
+        <v>-4.483136177062988</v>
       </c>
       <c r="B16" t="n">
-        <v>-18.83548355102539</v>
+        <v>2.244215488433838</v>
       </c>
       <c r="C16" t="n">
-        <v>14.72807312011719</v>
+        <v>2.329180240631104</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>14.46921157836914</v>
+        <v>-11.29128932952881</v>
       </c>
       <c r="B17" t="n">
-        <v>-1.267506122589111</v>
+        <v>-18.83548355102539</v>
       </c>
       <c r="C17" t="n">
-        <v>42.03435516357422</v>
+        <v>14.72807312011719</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-6.320694923400879</v>
+        <v>14.46921157836914</v>
       </c>
       <c r="B18" t="n">
-        <v>9.368348121643066</v>
+        <v>-1.267506122589111</v>
       </c>
       <c r="C18" t="n">
-        <v>17.8954906463623</v>
+        <v>42.03435516357422</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>42.09825134277344</v>
+        <v>-6.320694923400879</v>
       </c>
       <c r="B19" t="n">
-        <v>-44.42953491210938</v>
+        <v>9.368348121643066</v>
       </c>
       <c r="C19" t="n">
-        <v>46.48635864257812</v>
+        <v>17.8954906463623</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-29.51584625244141</v>
+        <v>42.09825134277344</v>
       </c>
       <c r="B20" t="n">
-        <v>29.9203052520752</v>
+        <v>-44.42953491210938</v>
       </c>
       <c r="C20" t="n">
-        <v>-9.463851928710938</v>
+        <v>46.48635864257812</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
+        <v>-29.51584625244141</v>
+      </c>
+      <c r="B21" t="n">
+        <v>29.9203052520752</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-9.463851928710938</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
         <v>-22.83065795898437</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B22" t="n">
         <v>-3.292042732238769</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C22" t="n">
         <v>-1.122726440429688</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>18.49324798583984</v>
+      </c>
+      <c r="B23" t="n">
+        <v>-80.07238006591797</v>
+      </c>
+      <c r="C23" t="n">
+        <v>68.10049438476562</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>-9.736778259277344</v>
+      </c>
+      <c r="B24" t="n">
+        <v>7.034156322479248</v>
+      </c>
+      <c r="C24" t="n">
+        <v>9.938852310180664</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>53.70849227905273</v>
+      </c>
+      <c r="B25" t="n">
+        <v>-16.30745315551758</v>
+      </c>
+      <c r="C25" t="n">
+        <v>39.18264770507812</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>-80.71715545654297</v>
+      </c>
+      <c r="B26" t="n">
+        <v>-15.45442008972168</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-28.87823677062988</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>23.98992347717285</v>
+      </c>
+      <c r="B27" t="n">
+        <v>5.58967399597168</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-7.651249885559082</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>0.3348398208618164</v>
+      </c>
+      <c r="B28" t="n">
+        <v>-21.52296257019043</v>
+      </c>
+      <c r="C28" t="n">
+        <v>16.69417762756348</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>3.726076126098633</v>
+      </c>
+      <c r="B29" t="n">
+        <v>2.594820261001587</v>
+      </c>
+      <c r="C29" t="n">
+        <v>41.84358978271485</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>8.552176475524902</v>
+      </c>
+      <c r="B30" t="n">
+        <v>7.943446636199951</v>
+      </c>
+      <c r="C30" t="n">
+        <v>19.50382232666016</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>28.44747161865234</v>
+      </c>
+      <c r="B31" t="n">
+        <v>-58.03325653076172</v>
+      </c>
+      <c r="C31" t="n">
+        <v>40.07803344726562</v>
       </c>
     </row>
   </sheetData>
